--- a/Nutrition/nutrition_log.xlsx
+++ b/Nutrition/nutrition_log.xlsx
@@ -1,69 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="measures" sheetId="1" r:id="rId1"/>
+    <sheet name="measures" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="May 01" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>BMR</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -71,36 +42,85 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -388,39 +408,158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Last updated</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>May 01 2022 19:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Height</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BMR</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Last Updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total Consumed</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Total Burned</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Calories</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Protein</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Carbs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Fats</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Nutrition/nutrition_log.xlsx
+++ b/Nutrition/nutrition_log.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="780" yWindow="750" windowWidth="17295" windowHeight="15450" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="measures" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="May 01" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -415,7 +415,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -480,10 +480,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -495,9 +495,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-    </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
@@ -519,9 +516,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-    </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
@@ -557,6 +551,87 @@
         <is>
           <t>Fats</t>
         </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>beer</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>500</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ml</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>215</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>18</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>wine</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>162</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>protein bar</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>210</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F10" t="n">
+        <v>26</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Nutrition/nutrition_log.xlsx
+++ b/Nutrition/nutrition_log.xlsx
@@ -8,6 +8,10 @@
   <sheets>
     <sheet name="measures" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="May 01" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="May 011" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="May 012" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="May 013" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="May 014" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -480,7 +484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
@@ -494,6 +498,11 @@
           <t>Last Updated</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>May 05 2022 20:08</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -501,6 +510,10 @@
           <t>Balance</t>
         </is>
       </c>
+      <c r="B3">
+        <f>B4-B5</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -508,6 +521,9 @@
           <t>Total Consumed</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>2200</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -515,6 +531,9 @@
           <t>Total Burned</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>2900</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -632,6 +651,267 @@
       </c>
       <c r="G10" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Bread</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>585.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>37.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>30.60</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A11:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Bread</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>585.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>37.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>30.60</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A11:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Bread</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>585.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>37.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>30.60</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A11:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Bread</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>585.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>37.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>30.60</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A11:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Bread</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>585.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>37.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>30.60</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Nutrition/nutrition_log.xlsx
+++ b/Nutrition/nutrition_log.xlsx
@@ -3,18 +3,15 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="780" yWindow="750" windowWidth="17295" windowHeight="15450" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2025" yWindow="1410" windowWidth="11670" windowHeight="11385" tabRatio="600" firstSheet="1" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="measures" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="May 01" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="May 011" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="May 012" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="May 013" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="May 014" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="May 03" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -433,7 +430,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>May 01 2022 19:32</t>
+          <t>May 05 2022 23:08</t>
         </is>
       </c>
     </row>
@@ -443,11 +440,6 @@
           <t>Weight</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -455,21 +447,11 @@
           <t>Height</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>171</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
           <t>BMR</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2500</t>
         </is>
       </c>
     </row>
@@ -484,9 +466,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -500,7 +482,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>May 05 2022 20:08</t>
+          <t>May 06 2022 20:27</t>
         </is>
       </c>
     </row>
@@ -510,9 +492,8 @@
           <t>Balance</t>
         </is>
       </c>
-      <c r="B3">
-        <f>B4-B5</f>
-        <v/>
+      <c r="B3" t="n">
+        <v>236.04</v>
       </c>
     </row>
     <row r="4">
@@ -522,7 +503,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2200</v>
+        <v>3436.04</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +513,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2900</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="7">
@@ -687,6 +668,857 @@
       <c r="G11" t="inlineStr">
         <is>
           <t>30.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Cottage Chease</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>485.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>51.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chicken breast</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>gr</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>228.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>42.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>carotte</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>gr</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>carotte</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>gr</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>carotte</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>gr</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Bread</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>195.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Bread</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>195.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Bread</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>195.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Bread</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>195.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Peanut butter</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Tsp</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Peanut butter</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Tsp</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Peanut butter</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Tsp</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Peanut butter</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Tsp</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Peanut butter</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Tsp</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Peanut butter</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Tsp</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Peanut butter</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Tsp</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Peanut butter</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Tsp</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Peanut butter</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Tsp</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Peanut butter</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Tsp</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Peanut butter</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Tsp</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Peanut butter</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Tsp</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Oil spray</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Salted Chease</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>gr</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.00</t>
         </is>
       </c>
     </row>
@@ -701,216 +1533,238 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A11:G11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Last Updated</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>May 07 2022 22:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Balance</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-1824</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total Consumed</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Total Burned</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Calories</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Protein</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Carbs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Fats</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>פסטה כוסמין קמח מלא</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>גרם</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>149.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>יוגורט 0%</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>גביע</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>לחם קל (פרוסה)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>יחידות</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>130.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+    </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bread</t>
+          <t>זרעי פשתן (כפית)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>כפית</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>585.00</t>
+          <t>120.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>37.80</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>23.40</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>30.60</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A11:G11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Bread</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>585.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>37.80</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>23.40</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>30.60</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A11:G11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Bread</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>585.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>37.80</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>23.40</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>30.60</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A11:G11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Bread</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>585.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>37.80</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>23.40</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>30.60</t>
+          <t>7.00</t>
         </is>
       </c>
     </row>

--- a/Nutrition/nutrition_log.xlsx
+++ b/Nutrition/nutrition_log.xlsx
@@ -9,6 +9,7 @@
     <sheet name="measures" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="May 01" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="May 03" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="May 08" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1771,4 +1772,472 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Last Updated</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>May 08 2022 22:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Balance</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-1712.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total Consumed</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1187.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Total Burned</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Calories</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Protein</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Carbs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Fats</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>לחם קל (פרוסה)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>יחידות</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>65.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>טונה במים</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>יחידה</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>120.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ביצה קשה</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>יחידה</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>180.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>אבוקדו בינוני</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>יחידות</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>140.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>קינואה</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>גרם</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>240.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>42.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>חזה עוף 100 גרם</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>גרם</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>228.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>42.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>פטל שחור מוקפא</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>גרם</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>בננה</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>יחידות</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>סלט ירקות</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>יחידה</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>מלפפון</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>יחידות</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Nutrition/nutrition_log.xlsx
+++ b/Nutrition/nutrition_log.xlsx
@@ -1780,7 +1780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>May 08 2022 22:23</t>
+          <t>May 08 2022 22:35</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1712.8</v>
+        <v>-1611</v>
       </c>
     </row>
     <row r="4">
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1187.2</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="5">
@@ -2234,6 +2234,80 @@
       <c r="G17" t="inlineStr">
         <is>
           <t>0.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>פירות קפואים: תות שדה</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>גרם</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>בולגרית פיראוס 5%</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>גרם</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>14.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>4.00</t>
         </is>
       </c>
     </row>

--- a/Nutrition/nutrition_log.xlsx
+++ b/Nutrition/nutrition_log.xlsx
@@ -3,16 +3,20 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2025" yWindow="1410" windowWidth="11670" windowHeight="11385" tabRatio="600" firstSheet="1" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1740" yWindow="720" windowWidth="9465" windowHeight="13470" tabRatio="600" firstSheet="5" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="measures" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="May 01" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="May 03" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="May 08" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="May 09" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="May 10" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="May 11" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="May 12" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1536,7 +1540,7 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2314,4 +2318,2545 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Last Updated</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>May 10 2022 11:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Balance</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-1599</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total Consumed</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Total Burned</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Calories</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Protein</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Carbs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Fats</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>לחם קל (פרוסה)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>יחידות</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>65.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ביצה קשה</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>יחידה</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>180.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>קוטג' 1% - גביע</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>גביע</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>120.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>חלב פרו 2% כוס=200מל</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>כוס</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>קינואה</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>220.00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>גרם</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>264.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>46.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>חזה עוף</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>220.00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>גרם</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>250.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>46.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>אבוקדו בינוני</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>יחידות</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>140.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>סלט ירקות</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>יחידה</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>דנונה פרו 0%</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>גביע</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>116.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>בננה</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>יחידות</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>44.50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="19.85546875" bestFit="1" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Last Updated</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>May 10 2022 21:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Balance</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-652.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total Consumed</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1247.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Total Burned</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Calories</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Protein</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Carbs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Fats</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ביצה קשה</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>יחידה</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>180.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>פטריות 50 גר'</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>גרם</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>בולגרית פיראוס 5%</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>גרם</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>59.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>גבינת סקי 5% [גרם]</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>גרם</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>48.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>חלב פרו 2% כוס=200מל</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>כוס</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>38.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>קוטג' 1% - גביע</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>גביע</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>דג לברק (פילה ~ 200 גרם)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>פילה</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>228.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>38.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>דלעת</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>גרם</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>קישוא</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>יחידה</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>פלפל אדום</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>יחידות</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>נודלס מבושל</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>גרם</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>67.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>15.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ביצה קשה</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>יחידה</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>180.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>קוטג' 1% - גביע</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>גביע</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>מלפפון</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>יחידות</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ברוקלי</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>גרם</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>סלט ירקות</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>יחידה</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>דנונה פרו 0%</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>גביע</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>116.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Last Updated</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>May 12 2022 21:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Balance</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-1619.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total Consumed</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1382.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Total Burned</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Calories</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Protein</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Carbs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Fats</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>לחם קל (פרוסה)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>יחידות</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>65.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ביצה קשה</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>יחידה</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>טונה במים</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>יחידה</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>120.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>מלפפון</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>יחידות</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>בטטה</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>120.00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>גרם</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>103.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>24.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>קישוא</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>יחידה</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>פלפל אדום</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>יחידות</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>חציל</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>גרם</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">רוטב טריאקי </t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>כף</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>גבינה לבנה 0.5%</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>גרם</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>חזה עוף</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>גרם</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>228.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>42.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>תירס [קלח]</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>יחידה</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>46.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>סלט ירקות</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>יחידה</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>בולגרית פיראוס 5%</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>גרם</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>59.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>חלב פרו 2% כוס=200מל</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>כוס</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>38.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>שעועית לבנה מבושלת</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>140.00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>גרם</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>194.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>יוגורט 0%</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>גביע</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>תות בינוני</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>יחידות</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Last Updated</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>May 12 2022 22:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Balance</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-1031.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total Consumed</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1168.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Total Burned</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Calories</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Protein</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Carbs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Fats</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>לחם קל (פרוסה)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>יחידות</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>65.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>טונה במים</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>יחידה</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>120.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ביצה קשה</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>יחידה</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>270.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>מלפפון</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>יחידות</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>גבינת סקי 0.5% [גרם]</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>גרם</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>חלב פרו 2% כוס=200מל</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>כוס</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>חציל</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>140.00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>גרם</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>33.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>בטטה</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>גרם</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>בטטה</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>139.00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>גרם</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>119.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>פלפל אדום</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>יחידות</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>חזה עוף</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>210.00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>גרם</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>239.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>44.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>סלט ירקות</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>יחידה</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>אבוקדו בינוני</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>יחידות</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>140.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>